--- a/REGULAR/OJT/NEW DONE/HERNANDO, MERLE.xlsx
+++ b/REGULAR/OJT/NEW DONE/HERNANDO, MERLE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D49E5-2955-4264-AE88-7697C9002E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6BDFDC-734F-4BFF-B5D1-1761AF6F658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="408">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1253,6 +1253,12 @@
   </si>
   <si>
     <t>PARENTAL O. 03/20</t>
+  </si>
+  <si>
+    <t>QL(2-0-0)</t>
+  </si>
+  <si>
+    <t>6/5,6/2023</t>
   </si>
 </sst>
 </file>
@@ -3349,7 +3355,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3716,9 +3722,9 @@
   <dimension ref="A2:K718"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="2160" topLeftCell="A658" activePane="bottomLeft"/>
       <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="B666" sqref="B666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3881,7 +3887,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.576000000000136</v>
+        <v>47.076000000000136</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3891,7 +3897,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>127.75</v>
+        <v>130.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17975,13 +17981,15 @@
       <c r="B663" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C663" s="13"/>
+      <c r="C663" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D663" s="38"/>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G663" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H663" s="38"/>
       <c r="I663" s="9"/>
@@ -17995,13 +18003,15 @@
         <v>45047</v>
       </c>
       <c r="B664" s="20"/>
-      <c r="C664" s="13"/>
+      <c r="C664" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D664" s="38"/>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G664" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H664" s="38"/>
       <c r="I664" s="9"/>
@@ -18012,7 +18022,9 @@
       <c r="A665" s="39">
         <v>45078</v>
       </c>
-      <c r="B665" s="20"/>
+      <c r="B665" s="20" t="s">
+        <v>406</v>
+      </c>
       <c r="C665" s="13"/>
       <c r="D665" s="38"/>
       <c r="E665" s="9"/>
@@ -18024,7 +18036,9 @@
       <c r="H665" s="38"/>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
-      <c r="K665" s="20"/>
+      <c r="K665" s="20" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="39">
